--- a/Technology/Software/Workday.xlsx
+++ b/Technology/Software/Workday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F59B31-A83F-1E4E-ADA0-CBD54D863084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261D9AF-B00A-5046-989E-53F6DF8255A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2323,13 +2323,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>235.16</v>
+    <v>206.68</v>
     <v>128.72</v>
-    <v>1.2787999999999999</v>
-    <v>-1.06</v>
-    <v>-5.3569999999999998E-3</v>
-    <v>-0.06</v>
-    <v>-3.0489999999999998E-4</v>
+    <v>1.2698</v>
+    <v>-0.04</v>
+    <v>-2.0430000000000001E-4</v>
+    <v>-0.67</v>
+    <v>-3.4229999999999998E-3</v>
     <v>USD</v>
     <v>Workday, Inc. is a provider of enterprise cloud applications for finance and human resources. The Company provides approximately 10,000 organizations with software-as-a-service solutions to help solve business challenges, including supporting and empowering their workforce, managing their finances and spending in an ever-changing environment, and planning for the unexpected. The Company provides organizations with a unified system that can help them plan, execute, analyze, and extend to other applications and environments, thereby helping them continuously adapt how they manage their business and operations. It embeds artificial intelligence (AI) and machine learning (ML) into its platform, enabling its applications to natively leverage AI and ML as part of the workflow. The Company sells its solutions worldwide primarily through direct sales. The Company also offers professional services, both directly and through its Workday Services Partners to help customers deploy its solutions.</v>
     <v>17700</v>
@@ -2337,25 +2337,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6110 Stoneridge Mall Road, PLEASANTON, CA, 94588 US</v>
-    <v>197.45</v>
+    <v>196.66990000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45022.996105647653</v>
+    <v>45065.954684918754</v>
     <v>0</v>
-    <v>188.64</v>
-    <v>50973790000</v>
+    <v>194.23</v>
+    <v>50964332254</v>
     <v>WORKDAY, INC.</v>
     <v>WORKDAY, INC.</v>
-    <v>194.95</v>
+    <v>196.54</v>
     <v>1693.5239999999999</v>
-    <v>197.87</v>
-    <v>196.81</v>
-    <v>196.75</v>
-    <v>259000000</v>
+    <v>195.75</v>
+    <v>195.71</v>
+    <v>195.04</v>
+    <v>260407400</v>
     <v>WDAY</v>
     <v>WORKDAY, INC. (XNAS:WDAY)</v>
-    <v>2373899</v>
-    <v>1989298</v>
+    <v>1351530</v>
+    <v>1618989</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2520,9 +2520,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2943,10 +2943,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S99" sqref="S99"/>
+      <selection pane="bottomRight" activeCell="T98" sqref="T98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4017,15 +4017,15 @@
       </c>
       <c r="W16" s="30">
         <f>X101/P3</f>
-        <v>8.2006567759866851</v>
+        <v>8.1991352150272103</v>
       </c>
       <c r="X16" s="30">
         <f>X101/P28</f>
-        <v>-138.98821810011751</v>
+        <v>-138.96243003798239</v>
       </c>
       <c r="Y16" s="31">
         <f>X101/P106</f>
-        <v>39.28182866936438</v>
+        <v>39.274540265697112</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="X95" s="58" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.2787999999999999</v>
+        <v>1.2698</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="X97" s="55">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>9.6002340000000005E-2</v>
+        <v>9.5614890000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="X100" s="53">
         <f>X99/X103</f>
-        <v>5.9920772170176322E-2</v>
+        <v>5.9931225588649002E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="X101" s="44" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>50973790000</v>
+        <v>50964332254</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="X102" s="53">
         <f>X101/X103</f>
-        <v>0.94007922782982367</v>
+        <v>0.94006877441135095</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8654,7 +8654,7 @@
       </c>
       <c r="X103" s="57">
         <f>X99+X101</f>
-        <v>54222866000</v>
+        <v>54213408254</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="X105" s="26">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.2903780607431527E-2</v>
+        <v>9.2539010404701208E-2</v>
       </c>
       <c r="Y105" s="15"/>
       <c r="AH105" s="15"/>
@@ -8908,7 +8908,7 @@
       <c r="T107" s="34"/>
       <c r="U107" s="37">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>45248389865.646858</v>
+        <v>45492771064.684441</v>
       </c>
       <c r="V107" s="38" t="s">
         <v>148</v>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="U108" s="37">
         <f>U107+U106</f>
-        <v>48245986683.477501</v>
+        <v>48490367882.515083</v>
       </c>
       <c r="V108" s="38" t="s">
         <v>144</v>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="X108" s="42">
         <f>X105</f>
-        <v>9.2903780607431527E-2</v>
+        <v>9.2539010404701208E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="R110" s="44">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>37284506201.79612</v>
+        <v>37498692126.633018</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="R113" s="44">
         <f>R110+R111-R112</f>
-        <v>40156824201.79612</v>
+        <v>40371010126.633018</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9009,7 +9009,7 @@
       </c>
       <c r="R115" s="60">
         <f>R113/R114</f>
-        <v>130.29249456550073</v>
+        <v>130.98744041847905</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="R116" s="59" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>196.81</v>
+        <v>195.71</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="R117" s="48">
         <f>R115/R116-1</f>
-        <v>-0.33797828075046632</v>
+        <v>-0.33070645128772647</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Workday.xlsx
+++ b/Technology/Software/Workday.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261D9AF-B00A-5046-989E-53F6DF8255A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97C79D5-7E30-9749-B341-BF1A5753CC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,18 +550,22 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -893,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -946,12 +950,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1036,6 +1034,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2323,13 +2330,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>206.68</v>
+    <v>218.88</v>
     <v>128.72</v>
-    <v>1.2698</v>
-    <v>-0.04</v>
-    <v>-2.0430000000000001E-4</v>
-    <v>-0.67</v>
-    <v>-3.4229999999999998E-3</v>
+    <v>1.2657</v>
+    <v>19.66</v>
+    <v>0.10009700000000001</v>
+    <v>-0.06</v>
+    <v>-2.7769999999999997E-4</v>
     <v>USD</v>
     <v>Workday, Inc. is a provider of enterprise cloud applications for finance and human resources. The Company provides approximately 10,000 organizations with software-as-a-service solutions to help solve business challenges, including supporting and empowering their workforce, managing their finances and spending in an ever-changing environment, and planning for the unexpected. The Company provides organizations with a unified system that can help them plan, execute, analyze, and extend to other applications and environments, thereby helping them continuously adapt how they manage their business and operations. It embeds artificial intelligence (AI) and machine learning (ML) into its platform, enabling its applications to natively leverage AI and ML as part of the workflow. The Company sells its solutions worldwide primarily through direct sales. The Company also offers professional services, both directly and through its Workday Services Partners to help customers deploy its solutions.</v>
     <v>17700</v>
@@ -2337,25 +2344,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6110 Stoneridge Mall Road, PLEASANTON, CA, 94588 US</v>
-    <v>196.66990000000001</v>
+    <v>218.88</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.954684918754</v>
+    <v>45072.999729721872</v>
     <v>0</v>
-    <v>194.23</v>
-    <v>50964332254</v>
+    <v>211.14</v>
+    <v>56266226918</v>
     <v>WORKDAY, INC.</v>
     <v>WORKDAY, INC.</v>
-    <v>196.54</v>
+    <v>214.78</v>
     <v>1693.5239999999999</v>
-    <v>195.75</v>
-    <v>195.71</v>
-    <v>195.04</v>
+    <v>196.41</v>
+    <v>216.07</v>
+    <v>216.01</v>
     <v>260407400</v>
     <v>WDAY</v>
     <v>WORKDAY, INC. (XNAS:WDAY)</v>
-    <v>1351530</v>
-    <v>1618989</v>
+    <v>6730650</v>
+    <v>1854842</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2520,9 +2527,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2943,10 +2950,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T98" sqref="T98"/>
+      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4015,17 +4022,17 @@
         <f>(P35+O35+N35+M35+L35)/5</f>
         <v>4.1901270229281341E-2</v>
       </c>
-      <c r="W16" s="30">
+      <c r="W16" s="67">
         <f>X101/P3</f>
-        <v>8.1991352150272103</v>
-      </c>
-      <c r="X16" s="30">
+        <v>9.0521033463334994</v>
+      </c>
+      <c r="X16" s="67">
         <f>X101/P28</f>
-        <v>-138.96243003798239</v>
-      </c>
-      <c r="Y16" s="31">
+        <v>-153.41889662412169</v>
+      </c>
+      <c r="Y16" s="68">
         <f>X101/P106</f>
-        <v>39.274540265697112</v>
+        <v>43.36032862505327</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4130,6 +4137,11 @@
       <c r="V18" s="18" t="s">
         <v>125</v>
       </c>
+      <c r="W18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -4180,10 +4192,16 @@
       <c r="P19" s="10">
         <v>104407000</v>
       </c>
-      <c r="V19" s="32">
+      <c r="V19" s="30">
         <f>P40-P56-P61</f>
         <v>2872318000</v>
       </c>
+      <c r="W19" s="69">
+        <f>X101/Q3</f>
+        <v>7.8190976817676487</v>
+      </c>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -4312,6 +4330,8 @@
       <c r="P21" s="2">
         <v>1.6799999999999999E-2</v>
       </c>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -4362,6 +4382,8 @@
       <c r="P22" s="10">
         <v>-222200000</v>
       </c>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -7495,10 +7517,10 @@
       <c r="P83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W83" s="63" t="s">
+      <c r="W83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="X83" s="64"/>
+      <c r="X83" s="62"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7549,10 +7571,10 @@
       <c r="P84" s="1">
         <v>85773000</v>
       </c>
-      <c r="W84" s="65" t="s">
+      <c r="W84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="X84" s="66"/>
+      <c r="X84" s="64"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7603,10 +7625,10 @@
       <c r="P85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W85" s="50" t="s">
+      <c r="W85" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="X85" s="51">
+      <c r="X85" s="49">
         <f>P17</f>
         <v>102000000</v>
       </c>
@@ -7660,10 +7682,10 @@
       <c r="P86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W86" s="50" t="s">
+      <c r="W86" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="X86" s="51">
+      <c r="X86" s="49">
         <f>P56</f>
         <v>91343000</v>
       </c>
@@ -7717,10 +7739,10 @@
       <c r="P87" s="10">
         <v>1657195000</v>
       </c>
-      <c r="W87" s="50" t="s">
+      <c r="W87" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="X87" s="51">
+      <c r="X87" s="49">
         <f>P61</f>
         <v>3157733000</v>
       </c>
@@ -7774,10 +7796,10 @@
       <c r="P88" s="1">
         <v>0</v>
       </c>
-      <c r="W88" s="52" t="s">
+      <c r="W88" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="X88" s="53">
+      <c r="X88" s="51">
         <f>X85/(X86+X87)</f>
         <v>3.1393540809756371E-2</v>
       </c>
@@ -7846,10 +7868,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W89" s="50" t="s">
+      <c r="W89" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="X89" s="51">
+      <c r="X89" s="49">
         <f>P27</f>
         <v>106799000</v>
       </c>
@@ -7916,10 +7938,10 @@
       <c r="P90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W90" s="50" t="s">
+      <c r="W90" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="X90" s="51">
+      <c r="X90" s="49">
         <f>P25</f>
         <v>-259950000</v>
       </c>
@@ -7973,10 +7995,10 @@
       <c r="P91" s="1">
         <v>-7206134000</v>
       </c>
-      <c r="W91" s="52" t="s">
+      <c r="W91" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="X91" s="53">
+      <c r="X91" s="51">
         <f>X89/X90</f>
         <v>-0.41084439315252935</v>
       </c>
@@ -8030,10 +8052,10 @@
       <c r="P92" s="1">
         <v>5064696000</v>
       </c>
-      <c r="W92" s="54" t="s">
+      <c r="W92" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="X92" s="55">
+      <c r="X92" s="53">
         <f>X88*(1-X91)</f>
         <v>4.4291401032649891E-2</v>
       </c>
@@ -8087,10 +8109,10 @@
       <c r="P93" s="1">
         <v>-364488000</v>
       </c>
-      <c r="W93" s="65" t="s">
+      <c r="W93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="X93" s="66"/>
+      <c r="X93" s="64"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8141,10 +8163,10 @@
       <c r="P94" s="10">
         <v>-2505926000</v>
       </c>
-      <c r="W94" s="50" t="s">
+      <c r="W94" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="X94" s="56">
+      <c r="X94" s="54">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -8197,12 +8219,12 @@
       <c r="P95" s="1">
         <v>-1850825000</v>
       </c>
-      <c r="W95" s="50" t="s">
+      <c r="W95" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="X95" s="58" cm="1">
+      <c r="X95" s="56" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.2698</v>
+        <v>1.2657</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8254,10 +8276,10 @@
       <c r="P96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W96" s="50" t="s">
+      <c r="W96" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="X96" s="56">
+      <c r="X96" s="54">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8310,12 +8332,12 @@
       <c r="P97" s="1">
         <v>-74666000</v>
       </c>
-      <c r="W97" s="54" t="s">
+      <c r="W97" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="X97" s="55">
+      <c r="X97" s="53">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>9.5614890000000008E-2</v>
+        <v>9.5438385000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -8367,10 +8389,10 @@
       <c r="P98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W98" s="65" t="s">
+      <c r="W98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="X98" s="66"/>
+      <c r="X98" s="64"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8421,10 +8443,10 @@
       <c r="P99" s="1">
         <v>3129312000</v>
       </c>
-      <c r="W99" s="50" t="s">
+      <c r="W99" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="X99" s="51">
+      <c r="X99" s="49">
         <f>X86+X87</f>
         <v>3249076000</v>
       </c>
@@ -8478,12 +8500,12 @@
       <c r="P100" s="10">
         <v>1203821000</v>
       </c>
-      <c r="W100" s="52" t="s">
+      <c r="W100" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="X100" s="53">
+      <c r="X100" s="51">
         <f>X99/X103</f>
-        <v>5.9931225588649002E-2</v>
+        <v>5.4592278635909271E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8535,12 +8557,12 @@
       <c r="P101" s="1">
         <v>-595000</v>
       </c>
-      <c r="W101" s="50" t="s">
+      <c r="W101" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="X101" s="44" cm="1">
+      <c r="X101" s="42" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>50964332254</v>
+        <v>56266226918</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8592,12 +8614,12 @@
       <c r="P102" s="10">
         <v>354495000</v>
       </c>
-      <c r="W102" s="52" t="s">
+      <c r="W102" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="X102" s="53">
+      <c r="X102" s="51">
         <f>X101/X103</f>
-        <v>0.94006877441135095</v>
+        <v>0.94540772136409068</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8649,12 +8671,12 @@
       <c r="P103" s="1">
         <v>1540745000</v>
       </c>
-      <c r="W103" s="54" t="s">
+      <c r="W103" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="X103" s="57">
+      <c r="X103" s="55">
         <f>X99+X101</f>
-        <v>54213408254</v>
+        <v>59515302918</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8706,10 +8728,10 @@
       <c r="P104" s="11">
         <v>1895240000</v>
       </c>
-      <c r="W104" s="67" t="s">
+      <c r="W104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="X104" s="68"/>
+      <c r="X104" s="66"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8783,7 +8805,7 @@
       </c>
       <c r="X105" s="26">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.2539010404701208E-2</v>
+        <v>9.2646154599868039E-2</v>
       </c>
       <c r="Y105" s="15"/>
       <c r="AH105" s="15"/>
@@ -8854,33 +8876,33 @@
       <c r="P106" s="1">
         <v>1297643000</v>
       </c>
-      <c r="Q106" s="33">
+      <c r="Q106" s="31">
         <f>P106*(1+$X$106)</f>
         <v>1534188865.4100413</v>
       </c>
-      <c r="R106" s="33">
+      <c r="R106" s="31">
         <f t="shared" ref="R106:U106" si="9">Q106*(1+$X$106)</f>
         <v>1813854407.3741004</v>
       </c>
-      <c r="S106" s="33">
+      <c r="S106" s="31">
         <f t="shared" si="9"/>
         <v>2144499862.6496456</v>
       </c>
-      <c r="T106" s="33">
+      <c r="T106" s="31">
         <f t="shared" si="9"/>
         <v>2535418301.6056414</v>
       </c>
-      <c r="U106" s="33">
+      <c r="U106" s="31">
         <f t="shared" si="9"/>
         <v>2997596817.830646</v>
       </c>
-      <c r="V106" s="34" t="s">
+      <c r="V106" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="W106" s="35" t="s">
+      <c r="W106" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="X106" s="36">
+      <c r="X106" s="34">
         <f>(SUM(Q4:U4)/5)</f>
         <v>0.18228886173627218</v>
       </c>
@@ -8902,139 +8924,139 @@
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
-      <c r="Q107" s="34"/>
-      <c r="R107" s="34"/>
-      <c r="S107" s="34"/>
-      <c r="T107" s="34"/>
-      <c r="U107" s="37">
+      <c r="Q107" s="32"/>
+      <c r="R107" s="32"/>
+      <c r="S107" s="32"/>
+      <c r="T107" s="32"/>
+      <c r="U107" s="35">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>45492771064.684441</v>
-      </c>
-      <c r="V107" s="38" t="s">
+        <v>45420715433.873398</v>
+      </c>
+      <c r="V107" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="W107" s="39" t="s">
+      <c r="W107" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="X107" s="40">
+      <c r="X107" s="38">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q108" s="37">
+      <c r="Q108" s="35">
         <f t="shared" ref="Q108:S108" si="10">Q107+Q106</f>
         <v>1534188865.4100413</v>
       </c>
-      <c r="R108" s="37">
+      <c r="R108" s="35">
         <f t="shared" si="10"/>
         <v>1813854407.3741004</v>
       </c>
-      <c r="S108" s="37">
+      <c r="S108" s="35">
         <f t="shared" si="10"/>
         <v>2144499862.6496456</v>
       </c>
-      <c r="T108" s="37">
+      <c r="T108" s="35">
         <f>T107+T106</f>
         <v>2535418301.6056414</v>
       </c>
-      <c r="U108" s="37">
+      <c r="U108" s="35">
         <f>U107+U106</f>
-        <v>48490367882.515083</v>
-      </c>
-      <c r="V108" s="38" t="s">
+        <v>48418312251.704041</v>
+      </c>
+      <c r="V108" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="W108" s="41" t="s">
+      <c r="W108" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="X108" s="42">
+      <c r="X108" s="40">
         <f>X105</f>
-        <v>9.2539010404701208E-2</v>
+        <v>9.2646154599868039E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q109" s="61" t="s">
+      <c r="Q109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="R109" s="62"/>
+      <c r="R109" s="60"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q110" s="43" t="s">
+      <c r="Q110" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="R110" s="44">
+      <c r="R110" s="42">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>37498692126.633018</v>
+        <v>37435537745.324341</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q111" s="43" t="s">
+      <c r="Q111" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="R111" s="44">
+      <c r="R111" s="42">
         <f>P40</f>
         <v>6121394000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q112" s="43" t="s">
+      <c r="Q112" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="R112" s="44">
+      <c r="R112" s="42">
         <f>X99</f>
         <v>3249076000</v>
       </c>
     </row>
     <row r="113" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q113" s="43" t="s">
+      <c r="Q113" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="R113" s="44">
+      <c r="R113" s="42">
         <f>R110+R111-R112</f>
-        <v>40371010126.633018</v>
+        <v>40307855745.324341</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q114" s="43" t="s">
+      <c r="Q114" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="R114" s="45">
+      <c r="R114" s="43">
         <f>P34*(1+(5*V16))</f>
         <v>308205198.89277625</v>
       </c>
     </row>
     <row r="115" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q115" s="46" t="s">
+      <c r="Q115" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="R115" s="60">
+      <c r="R115" s="58">
         <f>R113/R114</f>
-        <v>130.98744041847905</v>
+        <v>130.78253024325957</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q116" s="43" t="s">
+      <c r="Q116" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="R116" s="59" cm="1">
+      <c r="R116" s="57" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>195.71</v>
+        <v>216.07</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q117" s="47" t="s">
+      <c r="Q117" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="R117" s="48">
+      <c r="R117" s="46">
         <f>R115/R116-1</f>
-        <v>-0.33070645128772647</v>
+        <v>-0.39472147802443847</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q118" s="47" t="s">
+      <c r="Q118" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="R118" s="49" t="str">
+      <c r="R118" s="47" t="str">
         <f>IF(R115&gt;R116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Workday.xlsx
+++ b/Technology/Software/Workday.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97C79D5-7E30-9749-B341-BF1A5753CC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F1CFB-7EFF-B84E-AA8C-B0064C830A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1011,6 +1011,15 @@
     <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1034,15 +1043,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2330,39 +2330,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>218.88</v>
+    <v>226.05500000000001</v>
     <v>128.72</v>
-    <v>1.2657</v>
-    <v>19.66</v>
-    <v>0.10009700000000001</v>
-    <v>-0.06</v>
-    <v>-2.7769999999999997E-4</v>
+    <v>1.2582</v>
+    <v>1.17</v>
+    <v>5.3220000000000003E-3</v>
     <v>USD</v>
     <v>Workday, Inc. is a provider of enterprise cloud applications for finance and human resources. The Company provides approximately 10,000 organizations with software-as-a-service solutions to help solve business challenges, including supporting and empowering their workforce, managing their finances and spending in an ever-changing environment, and planning for the unexpected. The Company provides organizations with a unified system that can help them plan, execute, analyze, and extend to other applications and environments, thereby helping them continuously adapt how they manage their business and operations. It embeds artificial intelligence (AI) and machine learning (ML) into its platform, enabling its applications to natively leverage AI and ML as part of the workflow. The Company sells its solutions worldwide primarily through direct sales. The Company also offers professional services, both directly and through its Workday Services Partners to help customers deploy its solutions.</v>
-    <v>17700</v>
+    <v>17866</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6110 Stoneridge Mall Road, PLEASANTON, CA, 94588 US</v>
-    <v>218.88</v>
+    <v>221.2</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999729721872</v>
+    <v>45099.999936978907</v>
     <v>0</v>
-    <v>211.14</v>
-    <v>56266226918</v>
+    <v>217.14</v>
+    <v>57550035400</v>
     <v>WORKDAY, INC.</v>
     <v>WORKDAY, INC.</v>
-    <v>214.78</v>
+    <v>217.9</v>
     <v>1693.5239999999999</v>
-    <v>196.41</v>
-    <v>216.07</v>
-    <v>216.01</v>
+    <v>219.83</v>
+    <v>221</v>
     <v>260407400</v>
     <v>WDAY</v>
     <v>WORKDAY, INC. (XNAS:WDAY)</v>
-    <v>6730650</v>
-    <v>1854842</v>
+    <v>7</v>
+    <v>2543040</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2394,8 +2391,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2416,7 +2411,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2433,7 +2427,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2444,16 +2438,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2519,19 +2510,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2576,9 +2561,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2586,9 +2568,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2950,10 +2929,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
+      <selection pane="bottomRight" activeCell="O111" sqref="O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4022,17 +4001,17 @@
         <f>(P35+O35+N35+M35+L35)/5</f>
         <v>4.1901270229281341E-2</v>
       </c>
-      <c r="W16" s="67">
+      <c r="W16" s="59">
         <f>X101/P3</f>
-        <v>9.0521033463334994</v>
-      </c>
-      <c r="X16" s="67">
+        <v>9.2586422897195515</v>
+      </c>
+      <c r="X16" s="59">
         <f>X101/P28</f>
-        <v>-153.41889662412169</v>
-      </c>
-      <c r="Y16" s="68">
+        <v>-156.91940646054931</v>
+      </c>
+      <c r="Y16" s="60">
         <f>X101/P106</f>
-        <v>43.36032862505327</v>
+        <v>44.349667358433713</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4196,9 +4175,9 @@
         <f>P40-P56-P61</f>
         <v>2872318000</v>
       </c>
-      <c r="W19" s="69">
+      <c r="W19" s="61">
         <f>X101/Q3</f>
-        <v>7.8190976817676487</v>
+        <v>7.9975035297387436</v>
       </c>
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
@@ -7517,10 +7496,10 @@
       <c r="P83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W83" s="61" t="s">
+      <c r="W83" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="X83" s="62"/>
+      <c r="X83" s="65"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7571,10 +7550,10 @@
       <c r="P84" s="1">
         <v>85773000</v>
       </c>
-      <c r="W84" s="63" t="s">
+      <c r="W84" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="X84" s="64"/>
+      <c r="X84" s="67"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -8109,10 +8088,10 @@
       <c r="P93" s="1">
         <v>-364488000</v>
       </c>
-      <c r="W93" s="63" t="s">
+      <c r="W93" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="X93" s="64"/>
+      <c r="X93" s="67"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8224,7 +8203,7 @@
       </c>
       <c r="X95" s="56" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.2657</v>
+        <v>1.2582</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8337,7 +8316,7 @@
       </c>
       <c r="X97" s="53">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>9.5438385000000014E-2</v>
+        <v>9.5115510000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -8389,10 +8368,10 @@
       <c r="P98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W98" s="63" t="s">
+      <c r="W98" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="X98" s="64"/>
+      <c r="X98" s="67"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8505,7 +8484,7 @@
       </c>
       <c r="X100" s="51">
         <f>X99/X103</f>
-        <v>5.4592278635909271E-2</v>
+        <v>5.3439531025777462E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8562,7 +8541,7 @@
       </c>
       <c r="X101" s="42" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56266226918</v>
+        <v>57550035400</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8619,7 +8598,7 @@
       </c>
       <c r="X102" s="51">
         <f>X101/X103</f>
-        <v>0.94540772136409068</v>
+        <v>0.94656046897422252</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8676,7 +8655,7 @@
       </c>
       <c r="X103" s="55">
         <f>X99+X101</f>
-        <v>59515302918</v>
+        <v>60799111400</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8728,10 +8707,10 @@
       <c r="P104" s="11">
         <v>1895240000</v>
       </c>
-      <c r="W104" s="65" t="s">
+      <c r="W104" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="X104" s="66"/>
+      <c r="X104" s="69"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8805,7 +8784,7 @@
       </c>
       <c r="X105" s="26">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.2646154599868039E-2</v>
+        <v>9.2399493451981812E-2</v>
       </c>
       <c r="Y105" s="15"/>
       <c r="AH105" s="15"/>
@@ -8930,7 +8909,7 @@
       <c r="T107" s="32"/>
       <c r="U107" s="35">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>45420715433.873398</v>
+        <v>45586941101.648102</v>
       </c>
       <c r="V107" s="36" t="s">
         <v>148</v>
@@ -8961,7 +8940,7 @@
       </c>
       <c r="U108" s="35">
         <f>U107+U106</f>
-        <v>48418312251.704041</v>
+        <v>48584537919.478745</v>
       </c>
       <c r="V108" s="36" t="s">
         <v>144</v>
@@ -8971,14 +8950,14 @@
       </c>
       <c r="X108" s="40">
         <f>X105</f>
-        <v>9.2646154599868039E-2</v>
+        <v>9.2399493451981812E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q109" s="59" t="s">
+      <c r="Q109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="R109" s="60"/>
+      <c r="R109" s="63"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="Q110" s="41" t="s">
@@ -8986,7 +8965,7 @@
       </c>
       <c r="R110" s="42">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>37435537745.324341</v>
+        <v>37581231317.212662</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9013,7 +8992,7 @@
       </c>
       <c r="R113" s="42">
         <f>R110+R111-R112</f>
-        <v>40307855745.324341</v>
+        <v>40453549317.212662</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9031,7 +9010,7 @@
       </c>
       <c r="R115" s="58">
         <f>R113/R114</f>
-        <v>130.78253024325957</v>
+        <v>131.25524638306422</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9040,7 +9019,7 @@
       </c>
       <c r="R116" s="57" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>216.07</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9049,7 +9028,7 @@
       </c>
       <c r="R117" s="46">
         <f>R115/R116-1</f>
-        <v>-0.39472147802443847</v>
+        <v>-0.40608485799518457</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Workday.xlsx
+++ b/Technology/Software/Workday.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F1CFB-7EFF-B84E-AA8C-B0064C830A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583FDD62-DBAF-DA40-B7DA-5950D29FE84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -553,19 +547,47 @@
   </si>
   <si>
     <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -865,19 +887,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -892,12 +901,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -957,25 +975,8 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -994,21 +995,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1020,30 +1006,67 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,7 +1117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>WDAY</a:t>
+              <a:t>Workday</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1133,9 +1156,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.3606611570247925E-2"/>
-          <c:y val="0.12008535778338304"/>
-          <c:w val="0.85350082644628111"/>
-          <c:h val="0.76330018126540511"/>
+          <c:y val="0.1584412876108468"/>
+          <c:w val="0.83763305785123976"/>
+          <c:h val="0.6716262321618246"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1189,6 +1212,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$P$3</c:f>
@@ -1245,7 +1322,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BCFE-2C4F-8BDA-3E7F432265F1}"/>
+              <c16:uniqueId val="{00000000-C398-4F49-90AE-229B351AEBE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,6 +1373,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$19:$P$19</c:f>
@@ -1352,7 +1483,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BCFE-2C4F-8BDA-3E7F432265F1}"/>
+              <c16:uniqueId val="{00000001-C398-4F49-90AE-229B351AEBE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1361,11 +1492,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Unlevered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1403,63 +1534,117 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$P$106</c:f>
+              <c:f>'Sheet 1'!$B$105:$P$105</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-18997000</c:v>
+                  <c:v>-67785000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1200000</c:v>
+                  <c:v>-72768800</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-18773000</c:v>
+                  <c:v>-103630200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4684000</c:v>
+                  <c:v>-167146400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-29462000</c:v>
+                  <c:v>-258589600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1643000</c:v>
+                  <c:v>-305351600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124970000</c:v>
+                  <c:v>-425279200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>227842000</c:v>
+                  <c:v>-495743000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>313191000</c:v>
+                  <c:v>-310117400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>393701000</c:v>
+                  <c:v>-450019200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>620054000</c:v>
+                  <c:v>-257300000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1012111000</c:v>
+                  <c:v>-181624200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1378430000</c:v>
+                  <c:v>-301274000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1297643000</c:v>
+                  <c:v>-542856000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BCFE-2C4F-8BDA-3E7F432265F1}"/>
+              <c16:uniqueId val="{00000002-C398-4F49-90AE-229B351AEBE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1473,11 +1658,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1904818767"/>
-        <c:axId val="1904820495"/>
+        <c:axId val="809369023"/>
+        <c:axId val="809370751"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1904818767"/>
+        <c:axId val="809369023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1904820495"/>
+        <c:crossAx val="809370751"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1525,7 +1710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1904820495"/>
+        <c:axId val="809370751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,7 +1758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1904818767"/>
+        <c:crossAx val="809369023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1591,10 +1776,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.365663148304809"/>
-          <c:y val="0.91839584911812944"/>
-          <c:w val="0.30305376456042166"/>
-          <c:h val="4.9935454170542931E-2"/>
+          <c:x val="0.35324005986854951"/>
+          <c:y val="0.87947445984055317"/>
+          <c:w val="0.2988090323420316"/>
+          <c:h val="6.5885115406701666E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2174,22 +2359,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB65883-D144-BC3E-EAB6-700A2A017270}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557DF89A-7C8C-856A-7D22-8E3EE300B65D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,6 +2393,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2929,10 +3168,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O111" sqref="O111"/>
+      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3012,55 +3251,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
@@ -3081,7 +3320,7 @@
         <v>68055000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1">
         <v>134427000</v>
@@ -3120,36 +3359,36 @@
         <v>6215818000</v>
       </c>
       <c r="Q3" s="28">
-        <v>7196000000</v>
+        <v>7208000000</v>
       </c>
       <c r="R3" s="28">
-        <v>8446000000</v>
+        <v>8435000000</v>
       </c>
       <c r="S3" s="28">
-        <v>10061000000</v>
+        <v>9975000000</v>
       </c>
       <c r="T3" s="28">
-        <v>12072000000</v>
+        <v>12302000000</v>
       </c>
       <c r="U3" s="28">
-        <v>14353000000</v>
+        <v>14457000000</v>
       </c>
       <c r="V3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="X3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="Y3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3210,23 +3449,23 @@
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15769155403198742</v>
+        <v>0.15962211248784963</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>0.17370761534185664</v>
+        <v>0.17022752497225313</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>0.19121477622543215</v>
+        <v>0.18257261410788383</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>0.19988072756187258</v>
+        <v>0.2332832080200502</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18894963552021204</v>
+        <v>0.17517476833035284</v>
       </c>
       <c r="V4" s="17">
         <f>(P4+O4+N4)/3</f>
@@ -3241,7 +3480,7 @@
         <v>-5.0007834008370713</v>
       </c>
       <c r="Y4" s="17">
-        <f>(P105+O105+N105)/3</f>
+        <f>(P106+O106+N106)/3</f>
         <v>0.31187418186002031</v>
       </c>
       <c r="AH4" s="16"/>
@@ -3265,7 +3504,7 @@
         <v>39864000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
         <v>65368000</v>
@@ -3315,7 +3554,7 @@
         <v>28191000</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10">
         <v>69059000</v>
@@ -3354,16 +3593,16 @@
         <v>4500640000</v>
       </c>
       <c r="V6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="X6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="Y6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3377,7 +3616,7 @@
         <v>0.41420000000000001</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>0.51370000000000005</v>
@@ -3428,7 +3667,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
       <c r="Y7" s="20">
-        <f>P106/P3</f>
+        <f>P107/P3</f>
         <v>0.20876463886169125</v>
       </c>
     </row>
@@ -3443,7 +3682,7 @@
         <v>39175000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1">
         <v>62014000</v>
@@ -3484,7 +3723,7 @@
     </row>
     <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3551,16 +3790,16 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="V9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="W9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="X9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="Y9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
@@ -3579,7 +3818,7 @@
         <v>8553000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1">
         <v>15133000</v>
@@ -3631,7 +3870,7 @@
       </c>
       <c r="Y10" s="20">
         <f>P89</f>
-        <v>0</v>
+        <v>5.8638782538356173E-2</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3645,7 +3884,7 @@
         <v>36524000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1">
         <v>70356000</v>
@@ -3695,7 +3934,7 @@
         <v>45077000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1">
         <v>85489000</v>
@@ -3734,21 +3973,21 @@
         <v>2452180000</v>
       </c>
       <c r="V12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="X12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="Y12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3841,49 +4080,49 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -3897,7 +4136,7 @@
         <v>84252000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1">
         <v>147503000</v>
@@ -3936,16 +4175,16 @@
         <v>4722840000</v>
       </c>
       <c r="V15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="X15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="W15" s="19" t="s">
+      <c r="Y15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3959,7 +4198,7 @@
         <v>124116000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1">
         <v>212871000</v>
@@ -4001,16 +4240,16 @@
         <f>(P35+O35+N35+M35+L35)/5</f>
         <v>4.1901270229281341E-2</v>
       </c>
-      <c r="W16" s="59">
+      <c r="W16" s="43">
         <f>X101/P3</f>
         <v>9.2586422897195515</v>
       </c>
-      <c r="X16" s="59">
+      <c r="X16" s="43">
         <f>X101/P28</f>
         <v>-156.91940646054931</v>
       </c>
-      <c r="Y16" s="60">
-        <f>X101/P106</f>
+      <c r="Y16" s="44">
+        <f>X101/P107</f>
         <v>44.349667358433713</v>
       </c>
     </row>
@@ -4019,13 +4258,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1">
         <v>221000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>976000</v>
@@ -4075,7 +4314,7 @@
         <v>5313000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1">
         <v>9319000</v>
@@ -4114,13 +4353,17 @@
         <v>364357000</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="W18" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
+        <v>157</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -4133,7 +4376,7 @@
         <v>-50584000</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="10">
         <v>-69167000</v>
@@ -4170,21 +4413,42 @@
       </c>
       <c r="P19" s="10">
         <v>104407000</v>
+      </c>
+      <c r="Q19" s="68">
+        <v>1951000000</v>
+      </c>
+      <c r="R19" s="68">
+        <v>2348000000</v>
+      </c>
+      <c r="S19" s="68">
+        <v>2865000000</v>
+      </c>
+      <c r="T19" s="68">
+        <v>4994000000</v>
+      </c>
+      <c r="U19" s="68">
+        <v>6061000000</v>
       </c>
       <c r="V19" s="30">
         <f>P40-P56-P61</f>
         <v>2872318000</v>
       </c>
-      <c r="W19" s="61">
+      <c r="W19" s="45">
         <f>X101/Q3</f>
-        <v>7.9975035297387436</v>
-      </c>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
+        <v>7.9841891509433962</v>
+      </c>
+      <c r="X19" s="43">
+        <f>X101/Q28</f>
+        <v>40.671403109540634</v>
+      </c>
+      <c r="Y19" s="44">
+        <f>X101/Q105</f>
+        <v>-89.525072464383513</v>
+      </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4200,7 +4464,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:P20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:U20" si="3">(F19/E19)-1</f>
         <v>0.4455014674628075</v>
       </c>
       <c r="G20" s="15">
@@ -4243,15 +4507,28 @@
         <f t="shared" si="3"/>
         <v>-0.72269572677267613</v>
       </c>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
+      <c r="Q20" s="16">
+        <f t="shared" si="3"/>
+        <v>17.686486538258929</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.20348539210661198</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.22018739352640537</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.74310645724258295</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.21365638766519823</v>
+      </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
@@ -4260,7 +4537,7 @@
       <c r="AT20" s="15"/>
       <c r="AU20" s="15"/>
     </row>
-    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4271,7 +4548,7 @@
         <v>-0.74329999999999996</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2">
         <v>-0.51449999999999996</v>
@@ -4309,8 +4586,32 @@
       <c r="P21" s="2">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
+      <c r="Q21" s="69">
+        <f>Q19/Q3</f>
+        <v>0.27067147613762488</v>
+      </c>
+      <c r="R21" s="69">
+        <f t="shared" ref="R21:U21" si="4">R19/R3</f>
+        <v>0.27836395969176053</v>
+      </c>
+      <c r="S21" s="69">
+        <f t="shared" si="4"/>
+        <v>0.28721804511278193</v>
+      </c>
+      <c r="T21" s="69">
+        <f t="shared" si="4"/>
+        <v>0.40595025199154611</v>
+      </c>
+      <c r="U21" s="69">
+        <f t="shared" si="4"/>
+        <v>0.41924327315487309</v>
+      </c>
+      <c r="X21" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y21" s="19" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -4323,7 +4624,7 @@
         <v>-56061000</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="10">
         <v>-78444000</v>
@@ -4361,8 +4662,14 @@
       <c r="P22" s="10">
         <v>-222200000</v>
       </c>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
+      <c r="X22" s="73">
+        <f>P98/X101*-1</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="74">
+        <f>P107/X101</f>
+        <v>2.254808343697387E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -4375,7 +4682,7 @@
         <v>-0.82379999999999998</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2">
         <v>-0.58350000000000002</v>
@@ -4425,7 +4732,7 @@
         <v>-57000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1">
         <v>-1018000</v>
@@ -4475,7 +4782,7 @@
         <v>-56118000</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10">
         <v>-79462000</v>
@@ -4525,7 +4832,7 @@
         <v>-0.8246</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2">
         <v>-0.59109999999999996</v>
@@ -4575,7 +4882,7 @@
         <v>97000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1">
         <v>167000</v>
@@ -4625,7 +4932,7 @@
         <v>-56215000</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" s="11">
         <v>-79629000</v>
@@ -4663,10 +4970,25 @@
       <c r="P28" s="11">
         <v>-366749000</v>
       </c>
+      <c r="Q28" s="70">
+        <v>1415000000</v>
+      </c>
+      <c r="R28" s="70">
+        <v>1737000000</v>
+      </c>
+      <c r="S28" s="70">
+        <v>2167000000</v>
+      </c>
+      <c r="T28" s="70">
+        <v>3439000000</v>
+      </c>
+      <c r="U28" s="70">
+        <v>4186000000</v>
+      </c>
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4682,54 +5004,69 @@
         <v>#VALUE!</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:P29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:U29" si="5">(F28/E28)-1</f>
         <v>0.49681648645593945</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44734457588723897</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43750181149968981</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16910904823737205</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40825336819376523</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.21322726181670337</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3020839170417966</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14922846664020772</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.41242713356661687</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.1040006231610553</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-13.485922445783542</v>
       </c>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
+      <c r="Q29" s="16">
+        <f t="shared" si="5"/>
+        <v>-4.8582245623028282</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22756183745583036</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.24755325273459983</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.58698661744347014</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.21721430648444318</v>
+      </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
@@ -4753,7 +5090,7 @@
         <v>-0.82599999999999996</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="2">
         <v>-0.59240000000000004</v>
@@ -4790,6 +5127,26 @@
       </c>
       <c r="P30" s="2">
         <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="Q30" s="71">
+        <f>Q28/Q3</f>
+        <v>0.19630965593784683</v>
+      </c>
+      <c r="R30" s="71">
+        <f t="shared" ref="R30:U30" si="6">R28/R3</f>
+        <v>0.20592768227622998</v>
+      </c>
+      <c r="S30" s="71">
+        <f t="shared" si="6"/>
+        <v>0.21724310776942357</v>
+      </c>
+      <c r="T30" s="71">
+        <f t="shared" si="6"/>
+        <v>0.27954804096894814</v>
+      </c>
+      <c r="U30" s="71">
+        <f t="shared" si="6"/>
+        <v>0.28954831569481909</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4803,7 +5160,7 @@
         <v>-0.43</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="12">
         <v>-0.61</v>
@@ -4840,6 +5197,21 @@
       </c>
       <c r="P31" s="12">
         <v>-1.44</v>
+      </c>
+      <c r="Q31" s="72">
+        <v>5.44</v>
+      </c>
+      <c r="R31" s="72">
+        <v>6.67</v>
+      </c>
+      <c r="S31" s="72">
+        <v>8.32</v>
+      </c>
+      <c r="T31" s="72">
+        <v>13.21</v>
+      </c>
+      <c r="U31" s="72">
+        <v>16.07</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4853,7 +5225,7 @@
         <v>-0.43</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="12">
         <v>-0.61</v>
@@ -4903,7 +5275,7 @@
         <v>131857000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1">
         <v>131857000</v>
@@ -4953,7 +5325,7 @@
         <v>131857000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="1">
         <v>131857000</v>
@@ -4994,7 +5366,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -5002,55 +5374,55 @@
         <v>0</v>
       </c>
       <c r="D35" s="22" t="e">
-        <f t="shared" ref="D35:P35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:P35" si="7">(D34-C34)/C34</f>
         <v>#VALUE!</v>
       </c>
       <c r="E35" s="22" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.43870253380556207</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3144802799583846</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.241808087707316E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4370883278352984E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.314373526439879E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8230700152360577E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3388489416385109E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7954462634174244E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3286308515086823E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.1779055687518717E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0980348932417964E-3</v>
       </c>
       <c r="Q35" s="22"/>
@@ -5073,49 +5445,49 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -5123,49 +5495,49 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5179,7 +5551,7 @@
         <v>30887000</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1">
         <v>57529000</v>
@@ -5229,7 +5601,7 @@
         <v>4498000</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>53634000</v>
@@ -5279,7 +5651,7 @@
         <v>35385000</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1">
         <v>111163000</v>
@@ -5323,13 +5695,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>21364000</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>54467000</v>
@@ -5373,49 +5745,49 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5423,13 +5795,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>10526000</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1">
         <v>17542000</v>
@@ -5473,13 +5845,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>67275000</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10">
         <v>183172000</v>
@@ -5529,7 +5901,7 @@
         <v>12896000</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1">
         <v>25861000</v>
@@ -5573,13 +5945,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>8488000</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1">
         <v>8488000</v>
@@ -5623,19 +5995,19 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>188000</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1">
         <v>90000</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1">
         <v>4865000</v>
@@ -5673,13 +6045,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>8676000</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1">
         <v>8578000</v>
@@ -5723,22 +6095,22 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1">
         <v>10000000</v>
@@ -5765,7 +6137,7 @@
         <v>256759000</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5773,31 +6145,31 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1">
         <v>1884000</v>
@@ -5815,7 +6187,7 @@
         <v>11642000</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5823,13 +6195,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>11758000</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>15027000</v>
@@ -5873,13 +6245,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>33330000</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>49466000</v>
@@ -5926,46 +6298,46 @@
         <v>97800000</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5979,7 +6351,7 @@
         <v>100605000</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11">
         <v>232638000</v>
@@ -6023,13 +6395,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>1145000</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>2730000</v>
@@ -6073,13 +6445,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>1665000</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>7075000</v>
@@ -6094,10 +6466,10 @@
         <v>3207000</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1">
         <v>341509000</v>
@@ -6123,49 +6495,49 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6173,13 +6545,13 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>55541000</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1">
         <v>114734000</v>
@@ -6223,13 +6595,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>12989000</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1">
         <v>20699000</v>
@@ -6273,13 +6645,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>71340000</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10">
         <v>145238000</v>
@@ -6323,19 +6695,19 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1">
         <v>468412000</v>
@@ -6373,13 +6745,13 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1">
         <v>41863000</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1">
         <v>73363000</v>
@@ -6423,49 +6795,49 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6473,13 +6845,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>85041000</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>189598000</v>
@@ -6523,13 +6895,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>126904000</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1">
         <v>262961000</v>
@@ -6576,46 +6948,46 @@
         <v>66400000</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6629,7 +7001,7 @@
         <v>198244000</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10">
         <v>408199000</v>
@@ -6673,13 +7045,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>26000</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>33000</v>
@@ -6723,13 +7095,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-196701000</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>-282122000</v>
@@ -6779,7 +7151,7 @@
         <v>3000</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1">
         <v>3000</v>
@@ -6823,13 +7195,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>98965000</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1">
         <v>106457000</v>
@@ -6873,13 +7245,13 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-97639000</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10">
         <v>-175561000</v>
@@ -6923,13 +7295,13 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>100605000</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11">
         <v>232638000</v>
@@ -6973,49 +7345,49 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -7023,49 +7395,49 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -7079,7 +7451,7 @@
         <v>-5500000</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1">
         <v>-79629000</v>
@@ -7129,7 +7501,7 @@
         <v>500000</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1">
         <v>9319000</v>
@@ -7173,49 +7545,49 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -7226,10 +7598,10 @@
         <v>1702000</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1">
         <v>4182000</v>
@@ -7270,66 +7642,66 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:P80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:P80" si="8">B79/B3</f>
         <v>6.741929094870272E-2</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1109821687607401E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6011722703968835E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13189590095065873</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.19806564618079353</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21505644618727987</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.23720551775288373</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.22324490795828375</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.23119184460239955</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.23697882061289047</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.2327130455887407</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21417148523837676</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.20827862077042797</v>
       </c>
       <c r="Q80" s="15"/>
@@ -7358,7 +7730,7 @@
         <v>28320000</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1">
         <v>45195000</v>
@@ -7405,10 +7777,10 @@
         <v>-14520000</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1">
         <v>-39025000</v>
@@ -7435,16 +7807,16 @@
         <v>-160527000</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:46" ht="21" x14ac:dyDescent="0.25">
@@ -7452,56 +7824,56 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W83" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="X83" s="65"/>
-    </row>
-    <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="W83" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="X83" s="49"/>
+    </row>
+    <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -7512,7 +7884,7 @@
         <v>274000</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1">
         <v>2195000</v>
@@ -7550,10 +7922,10 @@
       <c r="P84" s="1">
         <v>85773000</v>
       </c>
-      <c r="W84" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="X84" s="67"/>
+      <c r="W84" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="X84" s="58"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7566,7 +7938,7 @@
         <v>38261000</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>77674000</v>
@@ -7602,12 +7974,12 @@
         <v>291063000</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W85" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="X85" s="49">
+        <v>91</v>
+      </c>
+      <c r="W85" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="X85" s="51">
         <f>P17</f>
         <v>102000000</v>
       </c>
@@ -7623,7 +7995,7 @@
         <v>-24420000</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1">
         <v>7159000</v>
@@ -7659,12 +8031,12 @@
         <v>68962000</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W86" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="X86" s="49">
+        <v>91</v>
+      </c>
+      <c r="W86" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="X86" s="51">
         <f>P56</f>
         <v>91343000</v>
       </c>
@@ -7680,7 +8052,7 @@
         <v>-1100000</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10">
         <v>-13774000</v>
@@ -7718,10 +8090,10 @@
       <c r="P87" s="10">
         <v>1657195000</v>
       </c>
-      <c r="W87" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="X87" s="49">
+      <c r="W87" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="X87" s="51">
         <f>P61</f>
         <v>3157733000</v>
       </c>
@@ -7737,7 +8109,7 @@
         <v>-100000</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1">
         <v>-4999000</v>
@@ -7767,90 +8139,90 @@
         <v>-99308000</v>
       </c>
       <c r="N88" s="1">
-        <v>0</v>
+        <v>-262446000</v>
       </c>
       <c r="O88" s="1">
-        <v>0</v>
+        <v>-443775000</v>
       </c>
       <c r="P88" s="1">
-        <v>0</v>
-      </c>
-      <c r="W88" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="X88" s="51">
+        <v>-364488000</v>
+      </c>
+      <c r="W88" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="X88" s="53">
         <f>X85/(X86+X87)</f>
         <v>3.1393540809756371E-2</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:P89" si="9">(-1*B88)/B3</f>
+        <v>0.1450584274113686</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4693997502020426E-3</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.7187469779136631E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.8094622099928009E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.16148190165864143</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1315538293605463</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11499759968202239</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.817670623362837E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.8239891743076456E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.4198598246745425E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.7378649020761436E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.0779583862514003E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.6357743581281066E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.8638782538356173E-2</v>
+      </c>
+      <c r="W89" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:P89" si="7">(-1*B88)/B3</f>
-        <v>0.1450584274113686</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.4693997502020426E-3</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7187469779136631E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.8094622099928009E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16148190165864143</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1315538293605463</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11499759968202239</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.817670623362837E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.8239891743076456E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.4198598246745425E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.7378649020761436E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="X89" s="49">
+      <c r="X89" s="51">
         <f>P27</f>
         <v>106799000</v>
       </c>
@@ -7861,7 +8233,7 @@
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
       <c r="AS89" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AT89" s="24">
         <f>AL27</f>
@@ -7873,22 +8245,22 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-26317000</v>
@@ -7909,18 +8281,18 @@
         <v>-473603000</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1">
         <v>-1190199000</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W90" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="W90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="X90" s="49">
+      <c r="X90" s="51">
         <f>P25</f>
         <v>-259950000</v>
       </c>
@@ -7933,10 +8305,10 @@
         <v>-20862000</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-64282000</v>
@@ -7974,10 +8346,10 @@
       <c r="P91" s="1">
         <v>-7206134000</v>
       </c>
-      <c r="W91" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="X91" s="51">
+      <c r="W91" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="X91" s="53">
         <f>X89/X90</f>
         <v>-0.41084439315252935</v>
       </c>
@@ -7990,10 +8362,10 @@
         <v>36691000</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>13086000</v>
@@ -8032,31 +8404,31 @@
         <v>5064696000</v>
       </c>
       <c r="W92" s="52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="X92" s="53">
         <f>X88*(1-X91)</f>
         <v>4.4291401032649891E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>800000</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1">
         <v>-910000</v>
@@ -8088,10 +8460,10 @@
       <c r="P93" s="1">
         <v>-364488000</v>
       </c>
-      <c r="W93" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="X93" s="67"/>
+      <c r="W93" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="X93" s="58"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8104,7 +8476,7 @@
         <v>700000</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10">
         <v>-56195000</v>
@@ -8142,11 +8514,12 @@
       <c r="P94" s="10">
         <v>-2505926000</v>
       </c>
-      <c r="W94" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="X94" s="54">
-        <v>4.095E-2</v>
+      <c r="W94" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="X94" s="67">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8157,10 +8530,10 @@
         <v>-952000</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1">
         <v>-4296000</v>
@@ -8178,10 +8551,10 @@
         <v>-3193000</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1">
         <v>-350030000</v>
@@ -8198,10 +8571,10 @@
       <c r="P95" s="1">
         <v>-1850825000</v>
       </c>
-      <c r="W95" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="X95" s="56" cm="1">
+      <c r="W95" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="X95" s="55" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
         <v>1.2582</v>
       </c>
@@ -8211,16 +8584,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>684620000</v>
@@ -8229,34 +8602,34 @@
         <v>592241000</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W96" s="48" t="s">
-        <v>137</v>
+        <v>91</v>
+      </c>
+      <c r="W96" s="50" t="s">
+        <v>135</v>
       </c>
       <c r="X96" s="54">
         <v>8.4000000000000005E-2</v>
@@ -8267,111 +8640,111 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1">
         <v>100000</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-8291000</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1">
         <v>-74666000</v>
       </c>
       <c r="W97" s="52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X97" s="53">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>9.5115510000000014E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+        <v>9.5588015999999998E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W98" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="X98" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="P98" s="1">
+        <v>0</v>
+      </c>
+      <c r="W98" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="X98" s="58"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8381,10 +8754,10 @@
         <v>626000</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1">
         <v>101274000</v>
@@ -8422,10 +8795,10 @@
       <c r="P99" s="1">
         <v>3129312000</v>
       </c>
-      <c r="W99" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="X99" s="49">
+      <c r="W99" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="X99" s="51">
         <f>X86+X87</f>
         <v>3249076000</v>
       </c>
@@ -8438,10 +8811,10 @@
         <v>-326000</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10">
         <v>96978000</v>
@@ -8479,10 +8852,10 @@
       <c r="P100" s="10">
         <v>1203821000</v>
       </c>
-      <c r="W100" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="X100" s="51">
+      <c r="W100" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="X100" s="53">
         <f>X99/X103</f>
         <v>5.3439531025777462E-2</v>
       </c>
@@ -8495,10 +8868,10 @@
         <v>9000</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1">
         <v>8000</v>
@@ -8536,10 +8909,10 @@
       <c r="P101" s="1">
         <v>-595000</v>
       </c>
-      <c r="W101" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="X101" s="42" cm="1">
+      <c r="W101" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="X101" s="56" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
         <v>57550035400</v>
       </c>
@@ -8555,7 +8928,7 @@
         <v>-400000</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10">
         <v>27017000</v>
@@ -8593,10 +8966,10 @@
       <c r="P102" s="10">
         <v>354495000</v>
       </c>
-      <c r="W102" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="X102" s="51">
+      <c r="W102" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="X102" s="53">
         <f>X101/X103</f>
         <v>0.94656046897422252</v>
       </c>
@@ -8612,7 +8985,7 @@
         <v>638554000</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1">
         <v>30512000</v>
@@ -8651,9 +9024,9 @@
         <v>1540745000</v>
       </c>
       <c r="W103" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="X103" s="55">
+        <v>142</v>
+      </c>
+      <c r="X103" s="57">
         <f>X99+X101</f>
         <v>60799111400</v>
       </c>
@@ -8669,7 +9042,7 @@
         <v>638154000</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11">
         <v>57529000</v>
@@ -8707,84 +9080,104 @@
       <c r="P104" s="11">
         <v>1895240000</v>
       </c>
-      <c r="W104" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="X104" s="69"/>
+      <c r="W104" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="X104" s="58"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.93683213138916677</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+        <v>158</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:O105" si="10">(B22*(1-0.2))+B77+B88-B81</f>
+        <v>-67785000</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-72768800</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-0.7504927289191925</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>5.2899231426131514</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:P105" si="8">(H106/G106)-1</f>
-        <v>-0.9442332496096667</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-77.062081558125385</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.82317356165479705</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.37459730866126528</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.2570635810096713</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.5749363095343929</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.63229492915133201</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.3619355979729495</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.8607981544220644E-2</v>
-      </c>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
-      <c r="U105" s="15"/>
-      <c r="V105" s="15"/>
-      <c r="W105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="X105" s="26">
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>-103630200</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>-167146400</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>-258589600</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>-305351600</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>-425279200</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>-495743000</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>-310117400</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>-450019200</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>-257300000</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>-181624200</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>-301274000</v>
+      </c>
+      <c r="P105" s="1">
+        <f>(P22*(1-0.2))+P77+P88-P81</f>
+        <v>-542856000</v>
+      </c>
+      <c r="Q105" s="31">
+        <f>P105*(1+$X$106)</f>
+        <v>-642837071.40137303</v>
+      </c>
+      <c r="R105" s="31">
+        <f t="shared" ref="R105:U105" si="11">Q105*(1+$X$106)</f>
+        <v>-761232261.16667032</v>
+      </c>
+      <c r="S105" s="31">
+        <f t="shared" si="11"/>
+        <v>-901433008.79906917</v>
+      </c>
+      <c r="T105" s="31">
+        <f t="shared" si="11"/>
+        <v>-1067455375.7182784</v>
+      </c>
+      <c r="U105" s="31">
+        <f t="shared" si="11"/>
+        <v>-1264055085.6551101</v>
+      </c>
+      <c r="V105" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="W105" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="X105" s="60">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.2399493451981812E-2</v>
+        <v>9.2846748952934918E-2</v>
       </c>
       <c r="Y105" s="15"/>
       <c r="AH105" s="15"/>
@@ -8799,7 +9192,7 @@
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
       <c r="AS105" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
@@ -8807,235 +9200,274 @@
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="A106" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>-0.93683213138916677</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f>(E107/D107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>-0.7504927289191925</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>5.2899231426131514</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-0.9442332496096667</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>-77.062081558125385</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>0.82317356165479705</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>0.37459730866126528</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>0.2570635810096713</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>0.5749363095343929</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>0.63229492915133201</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>0.3619355979729495</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-5.8607981544220644E-2</v>
+      </c>
+      <c r="Q106" s="75">
+        <v>1795000000</v>
+      </c>
+      <c r="R106" s="75">
+        <v>2153000000</v>
+      </c>
+      <c r="S106" s="75">
+        <v>2594000000</v>
+      </c>
+      <c r="T106" s="75">
+        <v>4627000000</v>
+      </c>
+      <c r="U106" s="75">
+        <v>5394000000</v>
+      </c>
+      <c r="V106" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="W106" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="X106" s="62">
+        <f>(SUM(Q4:U4)/5)</f>
+        <v>0.18417604558367792</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" s="1">
         <v>-18997000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-1200000</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1">
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1">
         <v>-18773000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>-4684000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>-29462000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>-1643000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>124970000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>227842000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>313191000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>393701000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>620054000</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N107" s="1">
         <v>1012111000</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O107" s="1">
         <v>1378430000</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P107" s="1">
         <v>1297643000</v>
       </c>
-      <c r="Q106" s="31">
-        <f>P106*(1+$X$106)</f>
-        <v>1534188865.4100413</v>
-      </c>
-      <c r="R106" s="31">
-        <f t="shared" ref="R106:U106" si="9">Q106*(1+$X$106)</f>
-        <v>1813854407.3741004</v>
-      </c>
-      <c r="S106" s="31">
-        <f t="shared" si="9"/>
-        <v>2144499862.6496456</v>
-      </c>
-      <c r="T106" s="31">
-        <f t="shared" si="9"/>
-        <v>2535418301.6056414</v>
-      </c>
-      <c r="U106" s="31">
-        <f t="shared" si="9"/>
-        <v>2997596817.830646</v>
-      </c>
-      <c r="V106" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="W106" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="X106" s="34">
-        <f>(SUM(Q4:U4)/5)</f>
-        <v>0.18228886173627218</v>
-      </c>
-    </row>
-    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
       <c r="Q107" s="32"/>
       <c r="R107" s="32"/>
       <c r="S107" s="32"/>
       <c r="T107" s="32"/>
-      <c r="U107" s="35">
+      <c r="U107" s="76">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>45586941101.648102</v>
-      </c>
-      <c r="V107" s="36" t="s">
+        <v>81490271609.555618</v>
+      </c>
+      <c r="V107" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="W107" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="X107" s="64">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q108" s="76">
+        <f t="shared" ref="Q108:S108" si="12">Q107+Q106</f>
+        <v>1795000000</v>
+      </c>
+      <c r="R108" s="76">
+        <f t="shared" si="12"/>
+        <v>2153000000</v>
+      </c>
+      <c r="S108" s="76">
+        <f t="shared" si="12"/>
+        <v>2594000000</v>
+      </c>
+      <c r="T108" s="76">
+        <f>T107+T106</f>
+        <v>4627000000</v>
+      </c>
+      <c r="U108" s="76">
+        <f>U107+U106</f>
+        <v>86884271609.555618</v>
+      </c>
+      <c r="V108" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="W108" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="X108" s="62">
+        <f>X105</f>
+        <v>9.2846748952934918E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q109" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="W107" s="37" t="s">
+      <c r="R109" s="47"/>
+    </row>
+    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q110" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="X107" s="38">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q108" s="35">
-        <f t="shared" ref="Q108:S108" si="10">Q107+Q106</f>
-        <v>1534188865.4100413</v>
-      </c>
-      <c r="R108" s="35">
-        <f t="shared" si="10"/>
-        <v>1813854407.3741004</v>
-      </c>
-      <c r="S108" s="35">
-        <f t="shared" si="10"/>
-        <v>2144499862.6496456</v>
-      </c>
-      <c r="T108" s="35">
-        <f>T107+T106</f>
-        <v>2535418301.6056414</v>
-      </c>
-      <c r="U108" s="35">
-        <f>U107+U106</f>
-        <v>48584537919.478745</v>
-      </c>
-      <c r="V108" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="W108" s="39" t="s">
+      <c r="R110" s="35">
+        <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
+        <v>64413662492.019203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q111" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="X108" s="40">
-        <f>X105</f>
-        <v>9.2399493451981812E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q109" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="R109" s="63"/>
-    </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q110" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="R110" s="42">
-        <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>37581231317.212662</v>
-      </c>
-    </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q111" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="R111" s="42">
+      <c r="R111" s="35">
         <f>P40</f>
         <v>6121394000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q112" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="R112" s="42">
+      <c r="Q112" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="R112" s="35">
         <f>X99</f>
         <v>3249076000</v>
       </c>
     </row>
     <row r="113" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q113" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="R113" s="42">
+      <c r="Q113" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="R113" s="35">
         <f>R110+R111-R112</f>
-        <v>40453549317.212662</v>
+        <v>67285980492.019196</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q114" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="R114" s="43">
+      <c r="Q114" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="R114" s="36">
         <f>P34*(1+(5*V16))</f>
         <v>308205198.89277625</v>
       </c>
     </row>
     <row r="115" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q115" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="R115" s="58">
+      <c r="Q115" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="R115" s="42">
         <f>R113/R114</f>
-        <v>131.25524638306422</v>
+        <v>218.31552723232227</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q116" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="R116" s="57" cm="1">
+      <c r="Q116" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="R116" s="41" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
         <v>221</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q117" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="R117" s="46">
+      <c r="Q117" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="R117" s="39">
         <f>R115/R116-1</f>
-        <v>-0.40608485799518457</v>
+        <v>-1.2146935600351738E-2</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q118" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="R118" s="47" t="str">
+      <c r="Q118" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="R118" s="40" t="str">
         <f>IF(R115&gt;R116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -9082,8 +9514,9 @@
     <hyperlink ref="P36" r:id="rId30" tooltip="https://www.sec.gov/Archives/edgar/data/1327811/000132781123000024/0001327811-23-000024-index.htm" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="P74" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1327811/000132781123000024/0001327811-23-000024-index.htm" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="Q1" r:id="rId32" display="https://finbox.com/NASDAQGS:WDAY/explorer/revenue_proj" xr:uid="{82277A1D-AC09-DB41-B1C1-C653004256BA}"/>
+    <hyperlink ref="V106" r:id="rId33" xr:uid="{C0EF080A-7F58-2847-A994-B6BB262EDB69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId33"/>
+  <drawing r:id="rId34"/>
 </worksheet>
 </file>
--- a/Technology/Software/Workday.xlsx
+++ b/Technology/Software/Workday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583FDD62-DBAF-DA40-B7DA-5950D29FE84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E319FF6-A10B-3F4C-A987-17354F30ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -915,7 +915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1006,54 +1006,38 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1062,11 +1046,26 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2411,9 +2410,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Top 10"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="High Quality"/>
       <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
       <sheetName val="Aggressive Growth"/>
@@ -2424,7 +2424,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.0239999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2444,6 +2444,7 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2569,11 +2570,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>226.05500000000001</v>
+    <v>240.18</v>
     <v>128.72</v>
-    <v>1.2582</v>
-    <v>1.17</v>
-    <v>5.3220000000000003E-3</v>
+    <v>1.2397</v>
+    <v>-1.98</v>
+    <v>-8.7019999999999997E-3</v>
     <v>USD</v>
     <v>Workday, Inc. is a provider of enterprise cloud applications for finance and human resources. The Company provides approximately 10,000 organizations with software-as-a-service solutions to help solve business challenges, including supporting and empowering their workforce, managing their finances and spending in an ever-changing environment, and planning for the unexpected. The Company provides organizations with a unified system that can help them plan, execute, analyze, and extend to other applications and environments, thereby helping them continuously adapt how they manage their business and operations. It embeds artificial intelligence (AI) and machine learning (ML) into its platform, enabling its applications to natively leverage AI and ML as part of the workflow. The Company sells its solutions worldwide primarily through direct sales. The Company also offers professional services, both directly and through its Workday Services Partners to help customers deploy its solutions.</v>
     <v>17866</v>
@@ -2581,24 +2582,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6110 Stoneridge Mall Road, PLEASANTON, CA, 94588 US</v>
-    <v>221.2</v>
+    <v>228.65</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999936978907</v>
+    <v>45147.999889756247</v>
     <v>0</v>
-    <v>217.14</v>
-    <v>57550035400</v>
+    <v>224</v>
+    <v>58737493144</v>
     <v>WORKDAY, INC.</v>
     <v>WORKDAY, INC.</v>
-    <v>217.9</v>
+    <v>227.75</v>
     <v>1693.5239999999999</v>
-    <v>219.83</v>
-    <v>221</v>
+    <v>227.54</v>
+    <v>225.56</v>
     <v>260407400</v>
     <v>WDAY</v>
     <v>WORKDAY, INC. (XNAS:WDAY)</v>
-    <v>7</v>
-    <v>2543040</v>
+    <v>1275873</v>
+    <v>1784358</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -3168,10 +3169,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
+      <selection pane="bottomRight" activeCell="Q104" sqref="Q104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4242,15 +4243,15 @@
       </c>
       <c r="W16" s="43">
         <f>X101/P3</f>
-        <v>9.2586422897195515</v>
+        <v>9.4496803387743977</v>
       </c>
       <c r="X16" s="43">
         <f>X101/P28</f>
-        <v>-156.91940646054931</v>
+        <v>-160.1572005486041</v>
       </c>
       <c r="Y16" s="44">
         <f>X101/P107</f>
-        <v>44.349667358433713</v>
+        <v>45.264755517503659</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4414,19 +4415,19 @@
       <c r="P19" s="10">
         <v>104407000</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="62">
         <v>1951000000</v>
       </c>
-      <c r="R19" s="68">
+      <c r="R19" s="62">
         <v>2348000000</v>
       </c>
-      <c r="S19" s="68">
+      <c r="S19" s="62">
         <v>2865000000</v>
       </c>
-      <c r="T19" s="68">
+      <c r="T19" s="62">
         <v>4994000000</v>
       </c>
-      <c r="U19" s="68">
+      <c r="U19" s="62">
         <v>6061000000</v>
       </c>
       <c r="V19" s="30">
@@ -4435,15 +4436,15 @@
       </c>
       <c r="W19" s="45">
         <f>X101/Q3</f>
-        <v>7.9841891509433962</v>
+        <v>8.1489307913429521</v>
       </c>
       <c r="X19" s="43">
         <f>X101/Q28</f>
-        <v>40.671403109540634</v>
+        <v>41.510595861484099</v>
       </c>
       <c r="Y19" s="44">
         <f>X101/Q105</f>
-        <v>-89.525072464383513</v>
+        <v>-91.372286629259477</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4586,23 +4587,23 @@
       <c r="P21" s="2">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="Q21" s="69">
+      <c r="Q21" s="63">
         <f>Q19/Q3</f>
         <v>0.27067147613762488</v>
       </c>
-      <c r="R21" s="69">
+      <c r="R21" s="63">
         <f t="shared" ref="R21:U21" si="4">R19/R3</f>
         <v>0.27836395969176053</v>
       </c>
-      <c r="S21" s="69">
+      <c r="S21" s="63">
         <f t="shared" si="4"/>
         <v>0.28721804511278193</v>
       </c>
-      <c r="T21" s="69">
+      <c r="T21" s="63">
         <f t="shared" si="4"/>
         <v>0.40595025199154611</v>
       </c>
-      <c r="U21" s="69">
+      <c r="U21" s="63">
         <f t="shared" si="4"/>
         <v>0.41924327315487309</v>
       </c>
@@ -4662,13 +4663,13 @@
       <c r="P22" s="10">
         <v>-222200000</v>
       </c>
-      <c r="X22" s="73">
+      <c r="X22" s="67">
         <f>P98/X101*-1</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="74">
+      <c r="Y22" s="68">
         <f>P107/X101</f>
-        <v>2.254808343697387E-2</v>
+        <v>2.2092243480986106E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4970,19 +4971,19 @@
       <c r="P28" s="11">
         <v>-366749000</v>
       </c>
-      <c r="Q28" s="70">
+      <c r="Q28" s="64">
         <v>1415000000</v>
       </c>
-      <c r="R28" s="70">
+      <c r="R28" s="64">
         <v>1737000000</v>
       </c>
-      <c r="S28" s="70">
+      <c r="S28" s="64">
         <v>2167000000</v>
       </c>
-      <c r="T28" s="70">
+      <c r="T28" s="64">
         <v>3439000000</v>
       </c>
-      <c r="U28" s="70">
+      <c r="U28" s="64">
         <v>4186000000</v>
       </c>
     </row>
@@ -5128,23 +5129,23 @@
       <c r="P30" s="2">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="Q30" s="71">
+      <c r="Q30" s="65">
         <f>Q28/Q3</f>
         <v>0.19630965593784683</v>
       </c>
-      <c r="R30" s="71">
+      <c r="R30" s="65">
         <f t="shared" ref="R30:U30" si="6">R28/R3</f>
         <v>0.20592768227622998</v>
       </c>
-      <c r="S30" s="71">
+      <c r="S30" s="65">
         <f t="shared" si="6"/>
         <v>0.21724310776942357</v>
       </c>
-      <c r="T30" s="71">
+      <c r="T30" s="65">
         <f t="shared" si="6"/>
         <v>0.27954804096894814</v>
       </c>
-      <c r="U30" s="71">
+      <c r="U30" s="65">
         <f t="shared" si="6"/>
         <v>0.28954831569481909</v>
       </c>
@@ -5198,19 +5199,19 @@
       <c r="P31" s="12">
         <v>-1.44</v>
       </c>
-      <c r="Q31" s="72">
+      <c r="Q31" s="66">
         <v>5.44</v>
       </c>
-      <c r="R31" s="72">
+      <c r="R31" s="66">
         <v>6.67</v>
       </c>
-      <c r="S31" s="72">
+      <c r="S31" s="66">
         <v>8.32</v>
       </c>
-      <c r="T31" s="72">
+      <c r="T31" s="66">
         <v>13.21</v>
       </c>
-      <c r="U31" s="72">
+      <c r="U31" s="66">
         <v>16.07</v>
       </c>
     </row>
@@ -7868,10 +7869,10 @@
       <c r="P83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W83" s="48" t="s">
+      <c r="W83" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="X83" s="49"/>
+      <c r="X83" s="74"/>
     </row>
     <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7922,10 +7923,10 @@
       <c r="P84" s="1">
         <v>85773000</v>
       </c>
-      <c r="W84" s="58" t="s">
+      <c r="W84" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="X84" s="58"/>
+      <c r="X84" s="75"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7976,10 +7977,10 @@
       <c r="P85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W85" s="50" t="s">
+      <c r="W85" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="X85" s="51">
+      <c r="X85" s="47">
         <f>P17</f>
         <v>102000000</v>
       </c>
@@ -8033,10 +8034,10 @@
       <c r="P86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W86" s="50" t="s">
+      <c r="W86" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="X86" s="51">
+      <c r="X86" s="47">
         <f>P56</f>
         <v>91343000</v>
       </c>
@@ -8090,10 +8091,10 @@
       <c r="P87" s="10">
         <v>1657195000</v>
       </c>
-      <c r="W87" s="50" t="s">
+      <c r="W87" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="X87" s="51">
+      <c r="X87" s="47">
         <f>P61</f>
         <v>3157733000</v>
       </c>
@@ -8147,10 +8148,10 @@
       <c r="P88" s="1">
         <v>-364488000</v>
       </c>
-      <c r="W88" s="52" t="s">
+      <c r="W88" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="X88" s="53">
+      <c r="X88" s="49">
         <f>X85/(X86+X87)</f>
         <v>3.1393540809756371E-2</v>
       </c>
@@ -8219,10 +8220,10 @@
         <f t="shared" si="9"/>
         <v>5.8638782538356173E-2</v>
       </c>
-      <c r="W89" s="50" t="s">
+      <c r="W89" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="X89" s="51">
+      <c r="X89" s="47">
         <f>P27</f>
         <v>106799000</v>
       </c>
@@ -8289,10 +8290,10 @@
       <c r="P90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W90" s="50" t="s">
+      <c r="W90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="X90" s="51">
+      <c r="X90" s="47">
         <f>P25</f>
         <v>-259950000</v>
       </c>
@@ -8346,10 +8347,10 @@
       <c r="P91" s="1">
         <v>-7206134000</v>
       </c>
-      <c r="W91" s="52" t="s">
+      <c r="W91" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="X91" s="53">
+      <c r="X91" s="49">
         <f>X89/X90</f>
         <v>-0.41084439315252935</v>
       </c>
@@ -8403,10 +8404,10 @@
       <c r="P92" s="1">
         <v>5064696000</v>
       </c>
-      <c r="W92" s="52" t="s">
+      <c r="W92" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="X92" s="53">
+      <c r="X92" s="49">
         <f>X88*(1-X91)</f>
         <v>4.4291401032649891E-2</v>
       </c>
@@ -8460,10 +8461,10 @@
       <c r="P93" s="1">
         <v>-364488000</v>
       </c>
-      <c r="W93" s="58" t="s">
+      <c r="W93" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="X93" s="58"/>
+      <c r="X93" s="75"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8514,12 +8515,12 @@
       <c r="P94" s="10">
         <v>-2505926000</v>
       </c>
-      <c r="W94" s="50" t="s">
+      <c r="W94" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="X94" s="67">
+      <c r="X94" s="50">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.0239999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8571,12 +8572,12 @@
       <c r="P95" s="1">
         <v>-1850825000</v>
       </c>
-      <c r="W95" s="50" t="s">
+      <c r="W95" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="X95" s="55" cm="1">
+      <c r="X95" s="51" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.2582</v>
+        <v>1.2397</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8628,10 +8629,10 @@
       <c r="P96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W96" s="50" t="s">
+      <c r="W96" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="X96" s="54">
+      <c r="X96" s="50">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8684,12 +8685,12 @@
       <c r="P97" s="1">
         <v>-74666000</v>
       </c>
-      <c r="W97" s="52" t="s">
+      <c r="W97" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="X97" s="53">
+      <c r="X97" s="49">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>9.5588015999999998E-2</v>
+        <v>9.4489272000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8741,10 +8742,10 @@
       <c r="P98" s="1">
         <v>0</v>
       </c>
-      <c r="W98" s="58" t="s">
+      <c r="W98" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="X98" s="58"/>
+      <c r="X98" s="75"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8795,10 +8796,10 @@
       <c r="P99" s="1">
         <v>3129312000</v>
       </c>
-      <c r="W99" s="50" t="s">
+      <c r="W99" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="X99" s="51">
+      <c r="X99" s="47">
         <f>X86+X87</f>
         <v>3249076000</v>
       </c>
@@ -8852,12 +8853,12 @@
       <c r="P100" s="10">
         <v>1203821000</v>
       </c>
-      <c r="W100" s="52" t="s">
+      <c r="W100" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="X100" s="53">
+      <c r="X100" s="49">
         <f>X99/X103</f>
-        <v>5.3439531025777462E-2</v>
+        <v>5.2415806276552006E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8909,12 +8910,12 @@
       <c r="P101" s="1">
         <v>-595000</v>
       </c>
-      <c r="W101" s="50" t="s">
+      <c r="W101" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="X101" s="56" cm="1">
+      <c r="X101" s="52" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>57550035400</v>
+        <v>58737493144</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8966,12 +8967,12 @@
       <c r="P102" s="10">
         <v>354495000</v>
       </c>
-      <c r="W102" s="52" t="s">
+      <c r="W102" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="X102" s="53">
+      <c r="X102" s="49">
         <f>X101/X103</f>
-        <v>0.94656046897422252</v>
+        <v>0.94758419372344804</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9023,12 +9024,12 @@
       <c r="P103" s="1">
         <v>1540745000</v>
       </c>
-      <c r="W103" s="52" t="s">
+      <c r="W103" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="X103" s="57">
+      <c r="X103" s="53">
         <f>X99+X101</f>
-        <v>60799111400</v>
+        <v>61986569144</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9080,10 +9081,10 @@
       <c r="P104" s="11">
         <v>1895240000</v>
       </c>
-      <c r="W104" s="58" t="s">
+      <c r="W104" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="X104" s="58"/>
+      <c r="X104" s="75"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -9172,12 +9173,12 @@
       <c r="V105" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="W105" s="59" t="s">
+      <c r="W105" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="X105" s="60">
+      <c r="X105" s="55">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.2846748952934918E-2</v>
+        <v>9.1858110119880043E-2</v>
       </c>
       <c r="Y105" s="15"/>
       <c r="AH105" s="15"/>
@@ -9205,89 +9206,89 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:P106" si="12">(C107/B107)-1</f>
         <v>-0.93683213138916677</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.7504927289191925</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="12"/>
         <v>5.2899231426131514</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.9442332496096667</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="12"/>
         <v>-77.062081558125385</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.82317356165479705</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.37459730866126528</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.2570635810096713</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.5749363095343929</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.63229492915133201</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.3619355979729495</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="12"/>
         <v>-5.8607981544220644E-2</v>
       </c>
-      <c r="Q106" s="75">
+      <c r="Q106" s="69">
         <v>1795000000</v>
       </c>
-      <c r="R106" s="75">
+      <c r="R106" s="69">
         <v>2153000000</v>
       </c>
-      <c r="S106" s="75">
+      <c r="S106" s="69">
         <v>2594000000</v>
       </c>
-      <c r="T106" s="75">
+      <c r="T106" s="69">
         <v>4627000000</v>
       </c>
-      <c r="U106" s="75">
+      <c r="U106" s="69">
         <v>5394000000</v>
       </c>
       <c r="V106" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="W106" s="61" t="s">
+      <c r="W106" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="X106" s="62">
+      <c r="X106" s="57">
         <f>(SUM(Q4:U4)/5)</f>
         <v>0.18417604558367792</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="66" t="s">
+      <c r="A107" s="61" t="s">
         <v>160</v>
       </c>
       <c r="B107" s="1">
@@ -9339,57 +9340,57 @@
       <c r="R107" s="32"/>
       <c r="S107" s="32"/>
       <c r="T107" s="32"/>
-      <c r="U107" s="76">
+      <c r="U107" s="70">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>81490271609.555618</v>
+        <v>82695277956.353912</v>
       </c>
       <c r="V107" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="W107" s="63" t="s">
+      <c r="W107" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="X107" s="64">
+      <c r="X107" s="59">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q108" s="76">
-        <f t="shared" ref="Q108:S108" si="12">Q107+Q106</f>
+      <c r="Q108" s="70">
+        <f t="shared" ref="Q108:S108" si="13">Q107+Q106</f>
         <v>1795000000</v>
       </c>
-      <c r="R108" s="76">
-        <f t="shared" si="12"/>
+      <c r="R108" s="70">
+        <f t="shared" si="13"/>
         <v>2153000000</v>
       </c>
-      <c r="S108" s="76">
-        <f t="shared" si="12"/>
+      <c r="S108" s="70">
+        <f t="shared" si="13"/>
         <v>2594000000</v>
       </c>
-      <c r="T108" s="76">
+      <c r="T108" s="70">
         <f>T107+T106</f>
         <v>4627000000</v>
       </c>
-      <c r="U108" s="76">
+      <c r="U108" s="70">
         <f>U107+U106</f>
-        <v>86884271609.555618</v>
+        <v>88089277956.353912</v>
       </c>
       <c r="V108" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="W108" s="65" t="s">
+      <c r="W108" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="X108" s="62">
+      <c r="X108" s="57">
         <f>X105</f>
-        <v>9.2846748952934918E-2</v>
+        <v>9.1858110119880043E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q109" s="46" t="s">
+      <c r="Q109" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="R109" s="47"/>
+      <c r="R109" s="72"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="Q110" s="34" t="s">
@@ -9397,7 +9398,7 @@
       </c>
       <c r="R110" s="35">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>64413662492.019203</v>
+        <v>65464911723.096962</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -9424,7 +9425,7 @@
       </c>
       <c r="R113" s="35">
         <f>R110+R111-R112</f>
-        <v>67285980492.019196</v>
+        <v>68337229723.096954</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9442,7 +9443,7 @@
       </c>
       <c r="R115" s="42">
         <f>R113/R114</f>
-        <v>218.31552723232227</v>
+        <v>221.72640165901709</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9451,7 +9452,7 @@
       </c>
       <c r="R116" s="41" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>221</v>
+        <v>225.56</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -9460,7 +9461,7 @@
       </c>
       <c r="R117" s="39">
         <f>R115/R116-1</f>
-        <v>-1.2146935600351738E-2</v>
+        <v>-1.6995913907531968E-2</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">
